--- a/problems/super-egg-drop/Solutions2.xlsx
+++ b/problems/super-egg-drop/Solutions2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AhJo53589\leetcode-cn\problems\super-egg-drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EAF5D8-F46D-44E6-806E-66F3E8CB16B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FA4DF6-1529-4922-9B55-20F206659221}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A9BCD23-AEE3-4966-BF92-69D93CCD5BF6}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0A9BCD23-AEE3-4966-BF92-69D93CCD5BF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>楼层</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,26 +41,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我们从 1 楼扔个蛋，碎了 F = 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>假设是 5 层楼，那么 F 的区间是 [0,5]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>但是只有 1 层楼，那么 F 的区间是 [0,1]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如果没碎，排除法， F = 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是没办法测出 F 的值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>首先只能从最低开始扔，否则蛋在中间碎了，就没有蛋来测试了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,14 +81,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>覆盖了 T(1) + 1 个区间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我们只有 T(1) 次机会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如果我们只有 K(1) 个蛋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -138,6 +114,46 @@
   </si>
   <si>
     <t>注意我们的目的是，通过有 K 个蛋， T 次机会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从 1 楼扔个蛋，碎了 F = 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N = 1 层楼，需要确定的 F 为 [0,1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扔蛋 →</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N = 2 层楼，需要确定的 F 为 [0,2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没碎，F 有可能是 1 或 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从 2 楼扔个蛋，碎了 F = 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果没碎，排除法， F = 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果我们有 K(1) 个蛋，有 T(4) 次机会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够确定几个 F 呢</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -145,7 +161,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,8 +193,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -233,8 +265,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -242,13 +286,112 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="8"/>
+      </top>
+      <bottom style="thick">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="8"/>
+      </top>
+      <bottom style="thick">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="8"/>
+      </right>
+      <top style="thick">
+        <color theme="8"/>
+      </top>
+      <bottom style="thick">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="8"/>
+      </right>
+      <top style="thick">
+        <color theme="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="8"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -281,6 +424,48 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,18 +781,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C0B62F-FEEE-4FBF-9369-88142884E320}">
-  <dimension ref="C8:AF76"/>
+  <dimension ref="C8:AL110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="AJ32" sqref="AJ32"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="Y67" sqref="Y67:Z67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="40" width="3.625" customWidth="1"/>
+    <col min="1" max="39" width="2.9140625" customWidth="1"/>
+    <col min="40" max="40" width="3.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -639,131 +825,108 @@
       <c r="AE8" s="8"/>
       <c r="AF8" s="8"/>
     </row>
-    <row r="9" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C9" s="8"/>
       <c r="AF9" s="8"/>
     </row>
-    <row r="10" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:32" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C10" s="8"/>
       <c r="AF10" s="8"/>
     </row>
-    <row r="11" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:32" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="8"/>
+      <c r="F11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="14"/>
       <c r="AF11" s="8"/>
     </row>
-    <row r="12" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:32" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
-      <c r="G12" t="s">
-        <v>3</v>
-      </c>
-      <c r="T12" t="s">
-        <v>4</v>
-      </c>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C13" s="8"/>
-      <c r="G13" t="s">
-        <v>17</v>
-      </c>
       <c r="AF13" s="8"/>
     </row>
-    <row r="14" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
-      <c r="G14" t="s">
-        <v>6</v>
-      </c>
-      <c r="T14" t="s">
+      <c r="F14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="3"/>
+      <c r="AF14" s="8"/>
+    </row>
+    <row r="15" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C15" s="8"/>
+      <c r="F15" t="s">
         <v>2</v>
       </c>
-      <c r="AB14" s="3"/>
-      <c r="AF14" s="8"/>
-    </row>
-    <row r="15" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C15" s="8"/>
-      <c r="T15" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB15" s="4"/>
+      <c r="O15" s="4"/>
       <c r="AF15" s="8"/>
     </row>
-    <row r="16" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C16" s="8"/>
-      <c r="G16">
-        <v>5</v>
-      </c>
-      <c r="T16" t="s">
-        <v>16</v>
-      </c>
       <c r="AF16" s="8"/>
     </row>
-    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C17" s="8"/>
-      <c r="G17">
-        <v>4</v>
-      </c>
       <c r="AF17" s="8"/>
     </row>
-    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C18" s="8"/>
-      <c r="G18">
-        <v>3</v>
-      </c>
       <c r="AF18" s="8"/>
     </row>
-    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C19" s="8"/>
-      <c r="G19">
-        <v>2</v>
-      </c>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
+      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
+      <c r="Z19" s="11"/>
       <c r="AF19" s="8"/>
     </row>
-    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:32" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="8"/>
-      <c r="E20" t="s">
+      <c r="P20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="U20" s="4"/>
+      <c r="AB20" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC20" s="18"/>
+      <c r="AF20" s="8"/>
+    </row>
+    <row r="21" spans="3:32" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="8"/>
+      <c r="S21">
         <v>0</v>
       </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="R20" t="s">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>1</v>
-      </c>
-      <c r="V20" s="3"/>
-      <c r="W20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="AF20" s="8"/>
-    </row>
-    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C21" s="8"/>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="O21" t="s">
-        <v>1</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="3"/>
-      <c r="AB21" t="s">
-        <v>1</v>
-      </c>
+      <c r="U21" s="3"/>
+      <c r="AB21" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC21" s="18"/>
       <c r="AF21" s="8"/>
     </row>
-    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C22" s="8"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
       <c r="V22" s="1"/>
@@ -771,18 +934,17 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
       <c r="AF22" s="8"/>
     </row>
-    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C23" s="8"/>
       <c r="AF23" s="8"/>
     </row>
-    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C24" s="8"/>
       <c r="AF24" s="8"/>
     </row>
-    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -814,129 +976,126 @@
       <c r="AE25" s="8"/>
       <c r="AF25" s="8"/>
     </row>
-    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C26" s="8"/>
       <c r="AF26" s="8"/>
     </row>
-    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C27" s="8"/>
       <c r="AF27" s="8"/>
     </row>
-    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C28" s="8"/>
+      <c r="F28" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="14"/>
       <c r="AF28" s="8"/>
     </row>
-    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:32" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C29" s="8"/>
-      <c r="G29" t="s">
-        <v>18</v>
-      </c>
       <c r="AF29" s="8"/>
     </row>
-    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C30" s="8"/>
-      <c r="G30" t="s">
-        <v>19</v>
-      </c>
       <c r="AF30" s="8"/>
     </row>
-    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C31" s="8"/>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+      <c r="O31" s="3"/>
       <c r="AF31" s="8"/>
     </row>
-    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C32" s="8"/>
-      <c r="Q32" t="s">
-        <v>7</v>
-      </c>
+      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="16"/>
       <c r="AF32" s="8"/>
     </row>
-    <row r="33" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C33" s="8"/>
-      <c r="G33">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>8</v>
-      </c>
       <c r="AF33" s="8"/>
     </row>
-    <row r="34" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C34" s="8"/>
-      <c r="G34">
-        <v>4</v>
-      </c>
       <c r="AF34" s="8"/>
     </row>
-    <row r="35" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C35" s="8"/>
-      <c r="G35">
-        <v>3</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>9</v>
-      </c>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="11"/>
       <c r="AF35" s="8"/>
     </row>
-    <row r="36" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C36" s="8"/>
-      <c r="G36">
+      <c r="S36">
         <v>2</v>
       </c>
-      <c r="R36" t="s">
-        <v>20</v>
-      </c>
+      <c r="U36" s="16"/>
       <c r="AF36" s="8"/>
     </row>
-    <row r="37" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:32" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C37" s="8"/>
-      <c r="E37" t="s">
+      <c r="P37" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="U37" s="16"/>
+      <c r="AF37" s="8"/>
+    </row>
+    <row r="38" spans="3:32" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="8"/>
+      <c r="S38">
         <v>0</v>
       </c>
-      <c r="G37">
-        <v>1</v>
-      </c>
-      <c r="I37" s="3"/>
-      <c r="R37" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF37" s="8"/>
-    </row>
-    <row r="38" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C38" s="8"/>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s">
-        <v>1</v>
-      </c>
+      <c r="U38" s="3"/>
+      <c r="AB38" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC38" s="18"/>
       <c r="AF38" s="8"/>
     </row>
-    <row r="39" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:32" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C39" s="8"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
       <c r="AF39" s="8"/>
     </row>
-    <row r="40" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C40" s="8"/>
       <c r="AF40" s="8"/>
     </row>
-    <row r="41" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C41" s="8"/>
       <c r="AF41" s="8"/>
     </row>
-    <row r="42" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -968,128 +1127,136 @@
       <c r="AE42" s="8"/>
       <c r="AF42" s="8"/>
     </row>
-    <row r="43" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C43" s="8"/>
       <c r="AF43" s="8"/>
     </row>
-    <row r="44" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:32" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C44" s="8"/>
       <c r="AF44" s="8"/>
     </row>
-    <row r="45" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:32" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C45" s="8"/>
+      <c r="F45" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="14"/>
       <c r="AF45" s="8"/>
     </row>
-    <row r="46" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:32" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C46" s="8"/>
-      <c r="G46" t="s">
-        <v>18</v>
-      </c>
       <c r="AF46" s="8"/>
     </row>
-    <row r="47" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C47" s="8"/>
-      <c r="G47" t="s">
-        <v>19</v>
-      </c>
       <c r="AF47" s="8"/>
     </row>
-    <row r="48" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C48" s="8"/>
-      <c r="G48" t="s">
-        <v>15</v>
-      </c>
+      <c r="F48" t="s">
+        <v>27</v>
+      </c>
+      <c r="O48" s="3"/>
       <c r="AF48" s="8"/>
     </row>
-    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C49" s="8"/>
-      <c r="Q49" t="s">
-        <v>14</v>
-      </c>
+      <c r="F49" t="s">
+        <v>28</v>
+      </c>
+      <c r="O49" s="4"/>
       <c r="AF49" s="8"/>
     </row>
-    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C50" s="8"/>
-      <c r="G50">
-        <v>5</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>10</v>
-      </c>
       <c r="AF50" s="8"/>
     </row>
-    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C51" s="8"/>
-      <c r="G51">
-        <v>4</v>
-      </c>
       <c r="AF51" s="8"/>
     </row>
-    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:32" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C52" s="8"/>
-      <c r="G52">
-        <v>3</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>11</v>
-      </c>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="11"/>
+      <c r="X52" s="11"/>
+      <c r="Y52" s="11"/>
+      <c r="Z52" s="11"/>
       <c r="AF52" s="8"/>
     </row>
-    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C53" s="8"/>
-      <c r="G53">
+      <c r="P53" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S53">
         <v>2</v>
       </c>
-      <c r="J53" s="3"/>
-      <c r="R53" t="s">
-        <v>22</v>
-      </c>
+      <c r="U53" s="16"/>
+      <c r="V53" s="4"/>
+      <c r="AB53" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC53" s="18"/>
       <c r="AF53" s="8"/>
     </row>
-    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:32" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C54" s="8"/>
-      <c r="E54" t="s">
+      <c r="S54">
+        <v>1</v>
+      </c>
+      <c r="U54" s="16"/>
+      <c r="V54" s="3"/>
+      <c r="AB54" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC54" s="18"/>
+      <c r="AF54" s="8"/>
+    </row>
+    <row r="55" spans="3:32" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C55" s="8"/>
+      <c r="S55">
         <v>0</v>
       </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="I54" s="5"/>
-      <c r="N54" s="2"/>
-      <c r="AF54" s="8"/>
-    </row>
-    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C55" s="8"/>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="N55" s="6"/>
-      <c r="O55" t="s">
-        <v>1</v>
-      </c>
+      <c r="U55" s="3"/>
+      <c r="AB55" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC55" s="18"/>
       <c r="AF55" s="8"/>
     </row>
-    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:32" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="8"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+      <c r="U56" s="1"/>
+      <c r="V56" s="1"/>
+      <c r="W56" s="1"/>
+      <c r="X56" s="1"/>
+      <c r="Y56" s="1"/>
+      <c r="Z56" s="1"/>
       <c r="AF56" s="8"/>
     </row>
-    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C57" s="8"/>
       <c r="AF57" s="8"/>
     </row>
-    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C58" s="8"/>
       <c r="AF58" s="8"/>
     </row>
-    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C59" s="8"/>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -1121,139 +1288,155 @@
       <c r="AE59" s="8"/>
       <c r="AF59" s="8"/>
     </row>
-    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.3">
       <c r="C60" s="8"/>
       <c r="AF60" s="8"/>
     </row>
-    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C61" s="8"/>
-      <c r="S61" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="AF61" s="8"/>
     </row>
-    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C62" s="8"/>
-      <c r="S62" s="10" t="s">
-        <v>25</v>
-      </c>
+      <c r="F62" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="20"/>
+      <c r="O62" s="20"/>
+      <c r="P62" s="21"/>
       <c r="AF62" s="8"/>
     </row>
-    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C63" s="8"/>
-      <c r="G63" t="s">
-        <v>18</v>
-      </c>
+      <c r="F63" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="23"/>
+      <c r="P63" s="24"/>
       <c r="AF63" s="8"/>
     </row>
-    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:32" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C64" s="8"/>
-      <c r="G64" t="s">
-        <v>19</v>
-      </c>
       <c r="AF64" s="8"/>
     </row>
-    <row r="65" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C65" s="8"/>
-      <c r="G65" t="s">
+      <c r="S65">
+        <v>7</v>
+      </c>
+      <c r="U65" s="16"/>
+      <c r="AF65" s="8"/>
+    </row>
+    <row r="66" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C66" s="8"/>
+      <c r="S66">
+        <v>6</v>
+      </c>
+      <c r="U66" s="16"/>
+      <c r="AF66" s="8"/>
+      <c r="AK66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C67" s="8"/>
+      <c r="S67">
+        <v>5</v>
+      </c>
+      <c r="U67" s="16"/>
+      <c r="AF67" s="8"/>
+      <c r="AK67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C68" s="8"/>
+      <c r="S68">
+        <v>4</v>
+      </c>
+      <c r="U68" s="16"/>
+      <c r="AF68" s="8"/>
+    </row>
+    <row r="69" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C69" s="8"/>
+      <c r="S69">
+        <v>3</v>
+      </c>
+      <c r="U69" s="16"/>
+      <c r="AF69" s="8"/>
+      <c r="AK69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C70" s="8"/>
+      <c r="S70">
+        <v>2</v>
+      </c>
+      <c r="U70" s="16"/>
+      <c r="AF70" s="8"/>
+      <c r="AL70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C71" s="8"/>
+      <c r="P71" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="S71">
+        <v>1</v>
+      </c>
+      <c r="U71" s="16"/>
+      <c r="AF71" s="8"/>
+      <c r="AL71" t="s">
         <v>15</v>
       </c>
-      <c r="AF65" s="8"/>
-    </row>
-    <row r="66" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C66" s="8"/>
-      <c r="Q66" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF66" s="8"/>
-    </row>
-    <row r="67" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C67" s="8"/>
-      <c r="G67">
-        <v>5</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF67" s="8"/>
-    </row>
-    <row r="68" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C68" s="8"/>
-      <c r="G68">
-        <v>4</v>
-      </c>
-      <c r="L68" s="3"/>
-      <c r="N68" s="7"/>
-      <c r="Q68" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF68" s="8"/>
-    </row>
-    <row r="69" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C69" s="8"/>
-      <c r="G69">
-        <v>3</v>
-      </c>
-      <c r="K69" s="5"/>
-      <c r="N69" s="2"/>
-      <c r="AF69" s="8"/>
-    </row>
-    <row r="70" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C70" s="8"/>
-      <c r="G70">
-        <v>2</v>
-      </c>
-      <c r="J70" s="5"/>
-      <c r="N70" s="6"/>
-      <c r="AF70" s="8"/>
-    </row>
-    <row r="71" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C71" s="8"/>
-      <c r="E71" t="s">
+    </row>
+    <row r="72" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C72" s="8"/>
+      <c r="S72">
         <v>0</v>
       </c>
-      <c r="G71">
-        <v>1</v>
-      </c>
-      <c r="I71" s="5"/>
-      <c r="N71" s="6"/>
-      <c r="AF71" s="8"/>
-    </row>
-    <row r="72" spans="3:32" x14ac:dyDescent="0.2">
-      <c r="C72" s="8"/>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="N72" s="6"/>
-      <c r="O72" t="s">
-        <v>1</v>
-      </c>
+      <c r="U72" s="3"/>
       <c r="AF72" s="8"/>
     </row>
-    <row r="73" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C73" s="8"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-      <c r="K73" s="1"/>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="Q73" t="s">
-        <v>24</v>
-      </c>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+      <c r="U73" s="1"/>
+      <c r="V73" s="1"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
+      <c r="Y73" s="1"/>
+      <c r="Z73" s="1"/>
       <c r="AF73" s="8"/>
     </row>
-    <row r="74" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C74" s="8"/>
       <c r="AF74" s="8"/>
     </row>
-    <row r="75" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C75" s="8"/>
       <c r="AF75" s="8"/>
     </row>
-    <row r="76" spans="3:32" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:38" x14ac:dyDescent="0.3">
       <c r="C76" s="8"/>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -1285,7 +1468,337 @@
       <c r="AE76" s="8"/>
       <c r="AF76" s="8"/>
     </row>
+    <row r="77" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C77" s="8"/>
+      <c r="AF77" s="8"/>
+    </row>
+    <row r="78" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C78" s="8"/>
+      <c r="AF78" s="8"/>
+    </row>
+    <row r="79" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C79" s="8"/>
+      <c r="AF79" s="8"/>
+    </row>
+    <row r="80" spans="3:38" x14ac:dyDescent="0.3">
+      <c r="C80" s="8"/>
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF80" s="8"/>
+    </row>
+    <row r="81" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C81" s="8"/>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF81" s="8"/>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C82" s="8"/>
+      <c r="G82" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF82" s="8"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C83" s="8"/>
+      <c r="Q83" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF83" s="8"/>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C84" s="8"/>
+      <c r="G84">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF84" s="8"/>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C85" s="8"/>
+      <c r="G85">
+        <v>4</v>
+      </c>
+      <c r="AF85" s="8"/>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C86" s="8"/>
+      <c r="G86">
+        <v>3</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF86" s="8"/>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C87" s="8"/>
+      <c r="G87">
+        <v>2</v>
+      </c>
+      <c r="J87" s="3"/>
+      <c r="R87" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF87" s="8"/>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C88" s="8"/>
+      <c r="E88" t="s">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="I88" s="5"/>
+      <c r="N88" s="2"/>
+      <c r="AF88" s="8"/>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C89" s="8"/>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="N89" s="6"/>
+      <c r="O89" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF89" s="8"/>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C90" s="8"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="AF90" s="8"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C91" s="8"/>
+      <c r="AF91" s="8"/>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C92" s="8"/>
+      <c r="AF92" s="8"/>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="8"/>
+      <c r="N93" s="8"/>
+      <c r="O93" s="8"/>
+      <c r="P93" s="8"/>
+      <c r="Q93" s="8"/>
+      <c r="R93" s="8"/>
+      <c r="S93" s="8"/>
+      <c r="T93" s="8"/>
+      <c r="U93" s="8"/>
+      <c r="V93" s="8"/>
+      <c r="W93" s="8"/>
+      <c r="X93" s="8"/>
+      <c r="Y93" s="8"/>
+      <c r="Z93" s="8"/>
+      <c r="AA93" s="8"/>
+      <c r="AB93" s="8"/>
+      <c r="AC93" s="8"/>
+      <c r="AD93" s="8"/>
+      <c r="AE93" s="8"/>
+      <c r="AF93" s="8"/>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C94" s="8"/>
+      <c r="AF94" s="8"/>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C95" s="8"/>
+      <c r="S95" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF95" s="8"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C96" s="8"/>
+      <c r="S96" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AF96" s="8"/>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C97" s="8"/>
+      <c r="G97" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF97" s="8"/>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C98" s="8"/>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
+      <c r="AF98" s="8"/>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C99" s="8"/>
+      <c r="G99" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF99" s="8"/>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C100" s="8"/>
+      <c r="Q100" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF100" s="8"/>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C101" s="8"/>
+      <c r="G101">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF101" s="8"/>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C102" s="8"/>
+      <c r="G102">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3"/>
+      <c r="N102" s="7"/>
+      <c r="Q102" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF102" s="8"/>
+    </row>
+    <row r="103" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C103" s="8"/>
+      <c r="G103">
+        <v>3</v>
+      </c>
+      <c r="K103" s="5"/>
+      <c r="N103" s="2"/>
+      <c r="AF103" s="8"/>
+    </row>
+    <row r="104" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C104" s="8"/>
+      <c r="G104">
+        <v>2</v>
+      </c>
+      <c r="J104" s="5"/>
+      <c r="N104" s="6"/>
+      <c r="AF104" s="8"/>
+    </row>
+    <row r="105" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C105" s="8"/>
+      <c r="E105" t="s">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="I105" s="5"/>
+      <c r="N105" s="6"/>
+      <c r="AF105" s="8"/>
+    </row>
+    <row r="106" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C106" s="8"/>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="N106" s="6"/>
+      <c r="O106" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF106" s="8"/>
+    </row>
+    <row r="107" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C107" s="8"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+      <c r="Q107" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF107" s="8"/>
+    </row>
+    <row r="108" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C108" s="8"/>
+      <c r="AF108" s="8"/>
+    </row>
+    <row r="109" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C109" s="8"/>
+      <c r="AF109" s="8"/>
+    </row>
+    <row r="110" spans="3:32" x14ac:dyDescent="0.3">
+      <c r="C110" s="8"/>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="8"/>
+      <c r="M110" s="8"/>
+      <c r="N110" s="8"/>
+      <c r="O110" s="8"/>
+      <c r="P110" s="8"/>
+      <c r="Q110" s="8"/>
+      <c r="R110" s="8"/>
+      <c r="S110" s="8"/>
+      <c r="T110" s="8"/>
+      <c r="U110" s="8"/>
+      <c r="V110" s="8"/>
+      <c r="W110" s="8"/>
+      <c r="X110" s="8"/>
+      <c r="Y110" s="8"/>
+      <c r="Z110" s="8"/>
+      <c r="AA110" s="8"/>
+      <c r="AB110" s="8"/>
+      <c r="AC110" s="8"/>
+      <c r="AD110" s="8"/>
+      <c r="AE110" s="8"/>
+      <c r="AF110" s="8"/>
+    </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="AB55:AC55"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="F62:P62"/>
+    <mergeCell ref="F63:P63"/>
+    <mergeCell ref="F11:O11"/>
+    <mergeCell ref="F28:O28"/>
+    <mergeCell ref="F45:O45"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AB38:AC38"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
